--- a/public/assets/files/PlantillaProveedores.xlsx
+++ b/public/assets/files/PlantillaProveedores.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissa/Dropbox/phormo/etax/plantillas excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FE3CF1-E6A5-BF41-BB74-03F06FA9AADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE7D099-0BAB-49E5-B158-A504B7E2D6CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Proveedores" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -109,66 +109,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 - Cédula física
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 - Cédula jurídica
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 - DIMEX
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 - NITE
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5 - Extranjero
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>6 - Otro</t>
+F - Cédula física
+J - Cédula jurídica
+D - DIMEX
+N - NITE
+E - Extranjero
+O - Otro</t>
         </r>
       </text>
     </comment>
@@ -790,7 +736,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Codigo</t>
   </si>
@@ -843,18 +789,9 @@
     <t>AreaTel</t>
   </si>
   <si>
-    <t>Exento</t>
-  </si>
-  <si>
-    <t>EmisorReceptor</t>
-  </si>
-  <si>
     <t>CR</t>
   </si>
   <si>
-    <t>CODEJ</t>
-  </si>
-  <si>
     <t>Apelllido1</t>
   </si>
   <si>
@@ -870,16 +807,7 @@
     <t>1234-1234</t>
   </si>
   <si>
-    <t>XXXXXXXXX</t>
-  </si>
-  <si>
     <t>Indique el número de teléfono</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <r>
@@ -949,10 +877,10 @@
     <t>Indique una dirección de correo electrónico adicional del proveedor.</t>
   </si>
   <si>
-    <t>Elija la opción que indica si el proveedor regularmente está exento (SÍ) o no (NO)</t>
-  </si>
-  <si>
-    <t>Indique si el proveedor es emisor (E), receptor (R), o emisor y receptor de facturación electrónia (ER)</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>CODEJ</t>
   </si>
 </sst>
 </file>
@@ -1034,15 +962,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1052,13 +974,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1075,9 +1000,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:R4">
-  <autoFilter ref="A3:R4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:P4">
+  <autoFilter ref="A3:P4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codigo"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PrimerApellido"/>
@@ -1094,15 +1019,13 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="AreaTel"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Telefono"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="CorreosCopia"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Exento"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="EmisorReceptor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1398,101 +1321,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="18" width="20.83203125" customWidth="1"/>
+    <col min="1" max="16" width="20.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1541,37 +1456,31 @@
       <c r="P3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5">
+        <v>111111111</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
-      </c>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1586,37 +1495,25 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
         <v>9</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A1:U1"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{FB5AAD66-7B56-EC41-89B1-925E7155AB49}">
-      <formula1>"1, 2, 3, 4, 5, 6"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4" xr:uid="{FD64E9DF-C202-6D40-8A35-F9E0D6012FAE}">
-      <formula1>"E,R,ER"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{3F792A50-2C73-3045-9F03-4CB2152D0231}">
-      <formula1>"SÍ,NO"</formula1>
+      <formula1>"F, J, D, N, E, O"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1624,9 +1521,10 @@
     <hyperlink ref="P4" r:id="rId2" xr:uid="{FFE41E9D-3233-495D-BE64-74207D3A2BEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/public/assets/files/PlantillaProveedores.xlsx
+++ b/public/assets/files/PlantillaProveedores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissa/Dropbox/PHORMO/phormo-equipo/Clientes/eTax/app - plantillas excel/versión agosto/con código postal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE7D099-0BAB-49E5-B158-A504B7E2D6CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1955BCF5-34A2-E14C-A35E-8CB3EDED5F2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="-680" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proveedores" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{11909824-D6D8-334F-8EDE-290E5D78864B}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{F8A5A0EF-8A9C-8646-88EE-7E97105782A1}">
       <text>
         <r>
           <rPr>
@@ -210,12 +210,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Utilice como guía el documento adjunto.
-La sigla debe tener dos letras.</t>
+          <t xml:space="preserve">Utilice como guía el listado de esta página web.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">https://countrycode.org/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>La sigla debe tener dos letras.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{A7E26DD4-BD0D-1140-9801-66B19D7B248B}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{D301287C-1EEA-9648-923A-F826175F09E2}">
       <text>
         <r>
           <rPr>
@@ -225,147 +263,59 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Provincias de Costa Rica:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 - San José
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 - Alajuela
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 - Cartago 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 - Heredia
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5 - </t>
+          <t>Código postal de Costa Rica:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">En caso de que el proveedor sea de Costa Rica, consulte el código postal aquí: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Guanacaste</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6 - Puntarenas
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">7 - Limón
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente a la provincia.</t>
+          </rPr>
+          <t>https://www.correos.go.cr/nosotros/codigopostal/busqueda.html</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{BD03C317-448D-CE4B-8399-DAC7A3D29874}">
+    <comment ref="J2" authorId="1" shapeId="0" xr:uid="{3277290E-2966-6648-BEAA-AF1E2E1303DC}">
       <text>
         <r>
           <rPr>
@@ -375,90 +325,61 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Cantón:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Utilize como guía el documento adjunto para identificar el código que corresponde. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">El código es un número de 3 dígitos donde el primer número corresponde al número de provincia y los siguientes dos al número de cantón dentro de la provincia.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente al cantón.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>Barrio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Utilice como guía el documento adjunto para identificar los nombres oficiales de barrios. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente al barrio.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{E81F30FA-8A15-754F-BB5B-5547CE184240}">
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{029FCB90-D2D3-DB47-9360-A7AA53EDA67D}">
       <text>
         <r>
           <rPr>
@@ -468,206 +389,31 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Distrito:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Utilize como guía el documento adjunto para identificar el código que corresponde. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">El código es un número de 5 dígitos donde el primer número corresponde al número de provincia, los siguientes dos al número de cantón y los últimos dos al número de distrito.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente al distrito.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t xml:space="preserve">Sobre el código de área:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Para Costa Rica, digitar 506</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{3277290E-2966-6648-BEAA-AF1E2E1303DC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Barrio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Utilice como guía el documento adjunto para identificar los nombres oficiales de barrios. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="34"/>
-          </rPr>
-          <t xml:space="preserve">En caso de que el país NO sea Costa Rica, escriba el nombre correspondiente </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="34"/>
-          </rPr>
-          <t>al barrio.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="34"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{029FCB90-D2D3-DB47-9360-A7AA53EDA67D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Sobre el código de área:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Para Costa Rica, digitar 506</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{0A707099-F723-AD4F-98E6-BA36704E79C1}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{0A707099-F723-AD4F-98E6-BA36704E79C1}">
       <text>
         <r>
           <rPr>
@@ -736,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -747,15 +493,6 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Canton</t>
-  </si>
-  <si>
-    <t>Distrito</t>
-  </si>
-  <si>
     <t>Barrio</t>
   </si>
   <si>
@@ -808,6 +545,48 @@
   </si>
   <si>
     <t>Indique el número de teléfono</t>
+  </si>
+  <si>
+    <t>Indique el código de proveedor utilizado en eTax.</t>
+  </si>
+  <si>
+    <t>Indique el nombre del proveedor</t>
+  </si>
+  <si>
+    <t>Indique el primer apellido del proveedor</t>
+  </si>
+  <si>
+    <t>Indique el segundo apellido del proveedor</t>
+  </si>
+  <si>
+    <t>Elija el código equivalente al tipo de identificación del proveedor.</t>
+  </si>
+  <si>
+    <t>Indíque el número de identificación del proveedor.</t>
+  </si>
+  <si>
+    <t>Indique el correo electrónico del proveedor.</t>
+  </si>
+  <si>
+    <t>Indique en siglas el país del proveedor</t>
+  </si>
+  <si>
+    <t>Indíque el barrio del proveedor.</t>
+  </si>
+  <si>
+    <t>Indique la dirección del proveedor</t>
+  </si>
+  <si>
+    <t>Indique el código de área del teléfono del proveedor de acuerdo al país.</t>
+  </si>
+  <si>
+    <t>Indique una dirección de correo electrónico adicional del proveedor.</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>CODEJ</t>
   </si>
   <si>
     <r>
@@ -826,68 +605,26 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Complete los datos de sus proveedores en las celdas corresopndientes (a partir de la fila 4, inclusive). Cada proveedor se detalla en su propia fila.
+Complete los datos de sus proveedores en las celdas correspondientes (a partir de la fila 4, inclusive). Cada proveedor se detalla en su propia fila.
 Pase su cursor por las celdas de la segunda fila marcadas con un triángulo en la esquina superior derecha para ver más detalles sobre la información que debe digitar.
 No modifique los textos de la tercera fila. Estos son necesarios para la correcta lectura del documento.</t>
     </r>
   </si>
   <si>
-    <t>Indique el código de proveedor utilizado en eTax.</t>
-  </si>
-  <si>
-    <t>Indique el nombre del proveedor</t>
-  </si>
-  <si>
-    <t>Indique el primer apellido del proveedor</t>
-  </si>
-  <si>
-    <t>Indique el segundo apellido del proveedor</t>
-  </si>
-  <si>
-    <t>Elija el código equivalente al tipo de identificación del proveedor.</t>
-  </si>
-  <si>
-    <t>Indíque el número de identificación del proveedor.</t>
-  </si>
-  <si>
-    <t>Indique el correo electrónico del proveedor.</t>
-  </si>
-  <si>
-    <t>Indique en siglas el país del proveedor</t>
-  </si>
-  <si>
-    <t>Indique el número que corresponde a la provincia del proveedor.</t>
-  </si>
-  <si>
-    <t>Elija el número que corresponde al cantón del proveedor.</t>
-  </si>
-  <si>
-    <t>Elija el número que corresponde al distrito del proveedor.</t>
-  </si>
-  <si>
-    <t>Indíque el barrio del proveedor.</t>
-  </si>
-  <si>
-    <t>Indique la dirección del proveedor</t>
-  </si>
-  <si>
-    <t>Indique el código de área del teléfono del proveedor de acuerdo al país.</t>
-  </si>
-  <si>
-    <t>Indique una dirección de correo electrónico adicional del proveedor.</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>CODEJ</t>
+    <t>CódigoPostal</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>Indique el código postal del proveedor.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -940,6 +677,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -983,7 +725,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1000,9 +742,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:P4">
-  <autoFilter ref="A3:P4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:N4">
+  <autoFilter ref="A3:N4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codigo"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PrimerApellido"/>
@@ -1011,9 +753,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Identificacion"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Correo"/>
     <tableColumn id="19" xr3:uid="{D31E5BE9-9174-423A-ACFA-BD29570B1F95}" name="Pais"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Provincia"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Canton"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Distrito"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CódigoPostal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Barrio"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Direccion"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="AreaTel"/>
@@ -1025,7 +765,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1321,20 +1061,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="20.8203125" customWidth="1"/>
+    <col min="1" max="14" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1354,60 +1094,52 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1415,101 +1147,89 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
       <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5">
         <v>111111111</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>101</v>
-      </c>
-      <c r="K4">
-        <v>10101</v>
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
       </c>
       <c r="L4" t="s">
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{FB5AAD66-7B56-EC41-89B1-925E7155AB49}">
@@ -1518,7 +1238,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{29DD8F2F-81ED-46C6-998A-A4AB7A019606}"/>
-    <hyperlink ref="P4" r:id="rId2" xr:uid="{FFE41E9D-3233-495D-BE64-74207D3A2BEF}"/>
+    <hyperlink ref="N4" r:id="rId2" xr:uid="{FFE41E9D-3233-495D-BE64-74207D3A2BEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
